--- a/biology/Zoologie/Chiropterotriton_mosaueri/Chiropterotriton_mosaueri.xlsx
+++ b/biology/Zoologie/Chiropterotriton_mosaueri/Chiropterotriton_mosaueri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiropterotriton mosaueri est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiropterotriton mosaueri est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique au Mexique. Elle est connue uniquement de deux endroits, les grottes près de la ville de Durango et le parc national Los Mármoles dans le nord de l'Hidalgo. Elle se rencontre à environ 2 160 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique au Mexique. Elle est connue uniquement de deux endroits, les grottes près de la ville de Durango et le parc national Los Mármoles dans le nord de l'Hidalgo. Elle se rencontre à environ 2 160 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 108,9 mm de longueur totale dont 46,4 mm de longueur standard et 62,5 mm de queue[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 108,9 mm de longueur totale dont 46,4 mm de longueur standard et 62,5 mm de queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Walter Mosauer[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Walter Mosauer.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Woodall, 1941 : A new Mexican salamander of the genus Oedipus. Occasional Papers of the Museum of Zoology, University of Michigan, no 444, p. 1-4 (texte intégral).</t>
         </is>
